--- a/documents/caja_reductora.xlsx
+++ b/documents/caja_reductora.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Universidad\9no. Semestre\Diseño e Innovación\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\ball_n_beam_system\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC73D3AB-B318-45D4-A624-8FC3055410A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A20E8F-E142-4A9D-BF27-93E77566DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="2685" windowWidth="15375" windowHeight="7995" xr2:uid="{5A4DCC50-DA45-4216-B893-5354612DC972}"/>
+    <workbookView xWindow="4125" yWindow="1530" windowWidth="15375" windowHeight="7995" xr2:uid="{5A4DCC50-DA45-4216-B893-5354612DC972}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -382,6 +382,9 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -390,9 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69D1DD-C6A6-4A80-945F-6F4EBE29B2B1}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,12 +723,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -781,7 +781,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
@@ -795,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="5">
         <f>D7/D6</f>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -825,18 +825,18 @@
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -850,13 +850,13 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="23">
         <f>TRUNC(D14*(1/SQRT(D9)))</f>
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>18</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="D17" s="19">
         <f>(D14/D15)^2*D6</f>
-        <v>81.25371950009918</v>
+        <v>400</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>2</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="D19" s="19">
         <f>(D14/D15)*D6</f>
-        <v>360.56338028169017</v>
+        <v>800</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>2</v>
@@ -902,7 +902,7 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -917,38 +917,38 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="16">
         <f>D21*(D6/D19)</f>
-        <v>1.58898E-3</v>
+        <v>7.1615999999999997E-4</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="17">
         <f>D21*(D6/D7)</f>
-        <v>7.1615999999999997E-3</v>
+        <v>1.4323199999999999E-3</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -958,7 +958,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>35</v>
@@ -988,7 +988,7 @@
       </c>
       <c r="D29" s="5">
         <f>(D15+(D14/2)+(D15/2)+2)/(D27-D28)</f>
-        <v>31.066666666666666</v>
+        <v>21.09090909090909</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>30</v>
@@ -998,7 +998,7 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -1006,20 +1006,20 @@
       </c>
       <c r="D31" s="22">
         <f>D14/D29</f>
-        <v>0.51502145922746778</v>
+        <v>0.75862068965517249</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="13">
         <f>D15/D29</f>
-        <v>2.2854077253218885</v>
+        <v>1.517241379310345</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>35</v>
